--- a/params/getxnumber.xlsx
+++ b/params/getxnumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\UsedAutoInterface\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\AutoInterface\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B377C6C7-7EFB-4B33-8386-682F071354BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CB352-230D-4907-AE67-B949C25597AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>case1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,47 +70,18 @@
     <t>producttype</t>
   </si>
   <si>
-    <t>产品类型，1:卖车 2:估值 3：换车,4:车源详情页</t>
-  </si>
-  <si>
     <t>2scapp.ios</t>
   </si>
   <si>
-    <t>case3</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
-    <t>case5</t>
-  </si>
-  <si>
-    <t>case6</t>
-  </si>
-  <si>
-    <t>case7</t>
-  </si>
-  <si>
-    <t>case8</t>
-  </si>
-  <si>
-    <t>case9</t>
-  </si>
-  <si>
-    <t>case10</t>
-  </si>
-  <si>
-    <t>case11</t>
-  </si>
-  <si>
-    <t>case12</t>
-  </si>
-  <si>
-    <t>返回结果的400号码</t>
+    <t>result*xnumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result*xnumber</t>
+    <t>期望的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,10 +454,10 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,38 +476,8 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,43 +491,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="55.2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -605,38 +516,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="82.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -647,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,90 +536,30 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4">
-        <v>4008303729</v>
+        <v>4008208820</v>
       </c>
       <c r="F5" s="4">
-        <v>4008303403</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4008302549</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4008302529</v>
-      </c>
-      <c r="I5" s="4">
-        <v>4008302460</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4008301479</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4008301477</v>
-      </c>
-      <c r="L5" s="4">
-        <v>4008301472</v>
-      </c>
-      <c r="M5" s="4">
-        <v>4008301427</v>
-      </c>
-      <c r="N5" s="4">
-        <v>4008301247</v>
-      </c>
-      <c r="O5">
-        <v>4008661213</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4008301243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4008208821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
